--- a/controllers/uploads/newsletter.xlsx
+++ b/controllers/uploads/newsletter.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">This is the content</t>
   </si>
   <si>
-    <t xml:space="preserve">amithtr014@gmail.com</t>
+    <t xml:space="preserve">amith.tr@emvigotech.com</t>
   </si>
   <si>
     <t xml:space="preserve">News </t>
@@ -163,12 +163,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.38"/>
   </cols>
@@ -233,7 +233,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="amith014@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="amithtr014@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="amith.tr@emvigotech.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
